--- a/01.document/01.設計書/画面定義書.xlsx
+++ b/01.document/01.設計書/画面定義書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papa\01.equinix\11.hakkason\2018\03.設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\papa\01.equinix\11.hakkason\2018\05.develop\mobile-app-hackathon2018\01.document\01.設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -282,18 +282,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>きょうなにした</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>けんさく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>おねだり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>おなまえ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,9 +449,6 @@
     <t>1しるばあ</t>
   </si>
   <si>
-    <t>しるばあ</t>
-  </si>
-  <si>
     <t>おこずかいのいちらん</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,15 +484,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おこずかいのとうろく</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://item.rakuten.co.jp/akindo/cuh-2100bb01/</t>
-  </si>
-  <si>
-    <t>おねだりのとうろく</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>おこずかいのこうかん</t>
@@ -555,22 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●すごいね</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇いいね</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇がんばりましょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇だいじょうぶか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※←ダミーで</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -627,6 +588,101 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>こうかん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごーるど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しるばー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶろんず</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いまもっているお金</t>
+    <rPh sb="8" eb="9">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうなにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうなにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きょうなにした</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねだり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねだり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふるふるを押したときに友達を表示する。</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トモダチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面を開いた時に位置を登録する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -887,7 +943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,36 +1100,51 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,30 +1160,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,6 +1183,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1732,13 +1791,13 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2113,13 +2172,15 @@
   </sheetPr>
   <dimension ref="B2:AB24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2214,7 +2275,7 @@
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="I6" s="43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
@@ -2262,7 +2323,7 @@
     <row r="8" spans="2:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="I8" s="43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J8" s="44"/>
       <c r="K8" s="44"/>
@@ -2319,7 +2380,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T10" s="47"/>
       <c r="U10" s="47"/>
@@ -2575,13 +2636,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2688,7 +2749,7 @@
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="46" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -2699,7 +2760,7 @@
       <c r="J7" s="48"/>
       <c r="K7" s="16"/>
       <c r="L7" s="46" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="M7" s="47"/>
       <c r="N7" s="47"/>
@@ -2709,7 +2770,7 @@
       <c r="R7" s="47"/>
       <c r="S7" s="48"/>
       <c r="U7" s="46" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="V7" s="47"/>
       <c r="W7" s="47"/>
@@ -2755,7 +2816,7 @@
     <row r="10" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2817,16 +2878,16 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57"/>
+      <c r="S13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="45"/>
       <c r="Y13" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="21"/>
       <c r="AA13" s="21"/>
@@ -2836,16 +2897,16 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="52">
+      <c r="C14" s="56">
         <v>43191</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -2856,16 +2917,16 @@
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="28"/>
-      <c r="S14" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="60"/>
+      <c r="S14" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="55"/>
       <c r="Y14" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z14" s="27"/>
       <c r="AA14" s="27"/>
@@ -2875,16 +2936,16 @@
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="52">
+      <c r="C15" s="56">
         <v>43191</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -2895,16 +2956,16 @@
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="28"/>
-      <c r="S15" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
+      <c r="S15" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
       <c r="Y15" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Z15" s="27"/>
       <c r="AA15" s="27"/>
@@ -2914,16 +2975,16 @@
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="52">
+      <c r="C16" s="56">
         <v>43160</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="I16" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -2934,16 +2995,16 @@
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
-      <c r="S16" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
+      <c r="S16" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
       <c r="Y16" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Z16" s="27"/>
       <c r="AA16" s="27"/>
@@ -2953,12 +3014,12 @@
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -2969,12 +3030,12 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="28"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
       <c r="Y17" s="26"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
@@ -2982,7 +3043,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="6"/>
       <c r="AF17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
@@ -2990,21 +3051,21 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="6"/>
       <c r="AG18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="AD19" s="6"/>
       <c r="AG19" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="AD20" s="6"/>
       <c r="AG20" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.2">
@@ -3104,15 +3165,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BI38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3143,7 +3204,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="3"/>
       <c r="AG2" s="1" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -3356,7 +3417,7 @@
       <c r="H6" s="44"/>
       <c r="I6" s="45"/>
       <c r="J6" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
@@ -3368,10 +3429,10 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="63"/>
+      <c r="V6" s="68"/>
       <c r="Y6" s="5"/>
       <c r="AD6" s="6"/>
       <c r="AG6" s="4"/>
@@ -3385,7 +3446,7 @@
       <c r="AM6" s="44"/>
       <c r="AN6" s="45"/>
       <c r="AO6" s="38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AP6" s="39"/>
       <c r="AQ6" s="39"/>
@@ -3397,10 +3458,10 @@
       <c r="AW6" s="39"/>
       <c r="AX6" s="39"/>
       <c r="AY6" s="40"/>
-      <c r="AZ6" s="70" t="s">
+      <c r="AZ6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="BA6" s="71"/>
+      <c r="BA6" s="60"/>
       <c r="BD6" s="5"/>
       <c r="BI6" s="6"/>
     </row>
@@ -3467,39 +3528,39 @@
     <row r="8" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="43" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="66"/>
+      <c r="I8" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="71"/>
       <c r="AD8" s="6"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="43" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI8" s="44"/>
       <c r="AJ8" s="44"/>
       <c r="AK8" s="44"/>
       <c r="AL8" s="44"/>
       <c r="AM8" s="45"/>
-      <c r="AN8" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="74"/>
+      <c r="AN8" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="63"/>
       <c r="BI8" s="6"/>
     </row>
     <row r="9" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -3545,7 +3606,7 @@
     <row r="10" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
@@ -3569,7 +3630,7 @@
       <c r="AD10" s="15"/>
       <c r="AG10" s="14"/>
       <c r="AH10" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
@@ -3595,7 +3656,7 @@
     <row r="11" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3626,7 +3687,7 @@
       <c r="AD11" s="6"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30"/>
@@ -3659,7 +3720,7 @@
     <row r="12" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3684,7 +3745,7 @@
       <c r="AD12" s="6"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AI12" s="33"/>
       <c r="AJ12" s="33"/>
@@ -3711,7 +3772,7 @@
     <row r="13" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3735,7 +3796,7 @@
       <c r="AD13" s="6"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AI13" s="33"/>
       <c r="AJ13" s="33"/>
@@ -3761,7 +3822,7 @@
     <row r="14" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3785,7 +3846,7 @@
       <c r="AD14" s="6"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="32" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AI14" s="33"/>
       <c r="AJ14" s="33"/>
@@ -3925,14 +3986,11 @@
     <row r="18" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="S18" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="T18" s="24"/>
       <c r="AD18" s="15"/>
       <c r="AG18" s="14"/>
-      <c r="AH18" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="BI18" s="15"/>
     </row>
     <row r="19" spans="2:61" x14ac:dyDescent="0.2">
@@ -3952,7 +4010,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="24" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="T19" s="24"/>
       <c r="U19" s="16"/>
@@ -3965,9 +4023,7 @@
       <c r="AC19" s="5"/>
       <c r="AD19" s="6"/>
       <c r="AG19" s="4"/>
-      <c r="AH19" s="16" t="s">
-        <v>102</v>
-      </c>
+      <c r="AH19" s="16"/>
       <c r="AI19" s="16"/>
       <c r="AJ19" s="16"/>
       <c r="AK19" s="16"/>
@@ -4015,7 +4071,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="24" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="T20" s="24"/>
       <c r="U20" s="16"/>
@@ -4023,9 +4079,7 @@
       <c r="AC20" s="5"/>
       <c r="AD20" s="6"/>
       <c r="AG20" s="4"/>
-      <c r="AH20" s="16" t="s">
-        <v>103</v>
-      </c>
+      <c r="AH20" s="16"/>
       <c r="AI20" s="16"/>
       <c r="AJ20" s="16"/>
       <c r="AK20" s="16"/>
@@ -4072,9 +4126,7 @@
       <c r="V21" s="16"/>
       <c r="AD21" s="6"/>
       <c r="AG21" s="4"/>
-      <c r="AH21" s="42" t="s">
-        <v>104</v>
-      </c>
+      <c r="AH21" s="42"/>
       <c r="AI21" s="16"/>
       <c r="AJ21" s="16"/>
       <c r="AK21" s="16"/>
@@ -4190,52 +4242,52 @@
     </row>
     <row r="24" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
-      <c r="C24" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="69"/>
+      <c r="C24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="66"/>
       <c r="AD24" s="6"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="68"/>
-      <c r="AK24" s="68"/>
-      <c r="AL24" s="68"/>
-      <c r="AM24" s="68"/>
-      <c r="AN24" s="68"/>
-      <c r="AO24" s="68"/>
-      <c r="AP24" s="68"/>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="68"/>
-      <c r="AS24" s="68"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68"/>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="69"/>
+      <c r="AH24" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI24" s="65"/>
+      <c r="AJ24" s="65"/>
+      <c r="AK24" s="65"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="66"/>
       <c r="BI24" s="6"/>
     </row>
     <row r="25" spans="2:61" x14ac:dyDescent="0.2">
@@ -4491,7 +4543,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="6"/>
       <c r="X30" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AD30" s="6"/>
       <c r="AG30" s="4"/>
@@ -4540,7 +4592,7 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
       <c r="Z31" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="AD31" s="6"/>
       <c r="AG31" s="4"/>
@@ -4589,7 +4641,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="Z32" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="AD32" s="6"/>
       <c r="AG32" s="4"/>
@@ -4663,28 +4715,28 @@
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
+      <c r="E34" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
+      <c r="L34" s="58"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="61"/>
-      <c r="U34" s="61"/>
-      <c r="V34" s="61"/>
+      <c r="O34" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="58"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -4696,28 +4748,28 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK34" s="61"/>
-      <c r="AL34" s="61"/>
-      <c r="AM34" s="61"/>
-      <c r="AN34" s="61"/>
-      <c r="AO34" s="61"/>
-      <c r="AP34" s="61"/>
-      <c r="AQ34" s="61"/>
+      <c r="AJ34" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="58"/>
+      <c r="AM34" s="58"/>
+      <c r="AN34" s="58"/>
+      <c r="AO34" s="58"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="58"/>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU34" s="61"/>
-      <c r="AV34" s="61"/>
-      <c r="AW34" s="61"/>
-      <c r="AX34" s="61"/>
-      <c r="AY34" s="61"/>
-      <c r="AZ34" s="61"/>
-      <c r="BA34" s="61"/>
+      <c r="AT34" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU34" s="58"/>
+      <c r="AV34" s="58"/>
+      <c r="AW34" s="58"/>
+      <c r="AX34" s="58"/>
+      <c r="AY34" s="58"/>
+      <c r="AZ34" s="58"/>
+      <c r="BA34" s="58"/>
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="5"/>
@@ -4731,24 +4783,24 @@
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="61"/>
-      <c r="U35" s="61"/>
-      <c r="V35" s="61"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
@@ -4760,24 +4812,24 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="61"/>
-      <c r="AK35" s="61"/>
-      <c r="AL35" s="61"/>
-      <c r="AM35" s="61"/>
-      <c r="AN35" s="61"/>
-      <c r="AO35" s="61"/>
-      <c r="AP35" s="61"/>
-      <c r="AQ35" s="61"/>
+      <c r="AJ35" s="58"/>
+      <c r="AK35" s="58"/>
+      <c r="AL35" s="58"/>
+      <c r="AM35" s="58"/>
+      <c r="AN35" s="58"/>
+      <c r="AO35" s="58"/>
+      <c r="AP35" s="58"/>
+      <c r="AQ35" s="58"/>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
-      <c r="AT35" s="61"/>
-      <c r="AU35" s="61"/>
-      <c r="AV35" s="61"/>
-      <c r="AW35" s="61"/>
-      <c r="AX35" s="61"/>
-      <c r="AY35" s="61"/>
-      <c r="AZ35" s="61"/>
-      <c r="BA35" s="61"/>
+      <c r="AT35" s="58"/>
+      <c r="AU35" s="58"/>
+      <c r="AV35" s="58"/>
+      <c r="AW35" s="58"/>
+      <c r="AX35" s="58"/>
+      <c r="AY35" s="58"/>
+      <c r="AZ35" s="58"/>
+      <c r="BA35" s="58"/>
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="5"/>
@@ -4792,7 +4844,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4851,14 +4903,22 @@
     </row>
     <row r="38" spans="2:61" x14ac:dyDescent="0.2">
       <c r="J38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AO38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E34:L35"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="O34:V35"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C10:V10"/>
+    <mergeCell ref="C24:V24"/>
     <mergeCell ref="AH10:BA10"/>
     <mergeCell ref="AJ34:AQ35"/>
     <mergeCell ref="AT34:BA35"/>
@@ -4867,14 +4927,6 @@
     <mergeCell ref="AH8:AM8"/>
     <mergeCell ref="AN8:AS8"/>
     <mergeCell ref="AH24:BA24"/>
-    <mergeCell ref="E34:L35"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="O34:V35"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C10:V10"/>
-    <mergeCell ref="C24:V24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4887,13 +4939,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AD25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -4958,7 +5010,7 @@
     <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
       <c r="C4" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -4967,7 +5019,7 @@
       <c r="H4" s="44"/>
       <c r="I4" s="45"/>
       <c r="J4" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -5019,7 +5071,7 @@
     <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
       <c r="C6" s="43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
@@ -5045,7 +5097,7 @@
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -5075,7 +5127,7 @@
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5215,7 +5267,7 @@
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -5241,7 +5293,7 @@
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5303,7 +5355,7 @@
     <row r="18" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="C18" s="43" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44"/>
@@ -5312,7 +5364,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
       <c r="J18" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -5380,28 +5432,28 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="75" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="77"/>
+      <c r="E21" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="74"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="75" t="s">
-        <v>109</v>
-      </c>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="77"/>
+      <c r="O21" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="74"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -5475,7 +5527,7 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -5495,17 +5547,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AD26"/>
+  <dimension ref="B2:AG30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AQ22" sqref="AQ22"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5535,8 +5585,11 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="3"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AG2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -5567,21 +5620,24 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="6"/>
     </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="O4" s="75" t="s">
-        <v>63</v>
-      </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="77"/>
+      <c r="O4" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="48"/>
       <c r="AD4" s="6"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AG4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="O5" s="49"/>
       <c r="P5" s="50"/>
@@ -5595,76 +5651,62 @@
       <c r="Y5" s="5"/>
       <c r="AD5" s="6"/>
     </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
       <c r="AD6" s="6"/>
     </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="45"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
       <c r="AD7" s="6"/>
     </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="45"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="12"/>
-      <c r="AD8" s="6"/>
-    </row>
-    <row r="9" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="11" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -5683,22 +5725,16 @@
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
       <c r="V9" s="12"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="10" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -5717,96 +5753,140 @@
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="12"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
       <c r="AD10" s="15"/>
     </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="6"/>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:33" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="12"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="6"/>
     </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="C13" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
+      <c r="R13" s="83"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
       <c r="AD13" s="6"/>
     </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="C14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
       <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
       <c r="AD14" s="6"/>
     </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="64">
-        <v>1</v>
-      </c>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="66"/>
+      <c r="C15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="12"/>
+      <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
@@ -5815,39 +5895,93 @@
       <c r="AC15" s="5"/>
       <c r="AD15" s="6"/>
     </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
+      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="6"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="O17" s="75" t="s">
-        <v>64</v>
-      </c>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="77"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
       <c r="AD17" s="6"/>
     </row>
-    <row r="18" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="51"/>
-      <c r="AD18" s="15"/>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="AD18" s="6"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
+      <c r="C19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="69">
+        <v>1</v>
+      </c>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="71"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -5863,67 +5997,32 @@
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
+      <c r="O21" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="74"/>
       <c r="AD21" s="6"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-      <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="AD22" s="6"/>
+    <row r="22" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="51"/>
+      <c r="AD22" s="15"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="5"/>
-      <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
       <c r="Z23" s="5"/>
@@ -5934,31 +6033,13 @@
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="6"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -5968,55 +6049,148 @@
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
       <c r="AD25" s="6"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="AD26" s="6"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="6"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="6"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="6"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="O17:V18"/>
-    <mergeCell ref="C7:V7"/>
+  <mergeCells count="5">
+    <mergeCell ref="O21:V22"/>
+    <mergeCell ref="C8:V8"/>
     <mergeCell ref="O4:V5"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:N19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6046,19 +6220,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="80"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="77"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">

--- a/01.document/01.設計書/画面定義書.xlsx
+++ b/01.document/01.設計書/画面定義書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="5" r:id="rId1"/>
@@ -434,9 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>おねだりせいこうまであと　90ごおるど</t>
-  </si>
-  <si>
     <t>10ごおるど</t>
   </si>
   <si>
@@ -684,6 +681,10 @@
     <rPh sb="11" eb="13">
       <t>トウロク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おねだりせいこうまであと　90ごおるど</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1073,6 +1074,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1121,6 +1134,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,30 +1173,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,18 +1196,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2274,15 +2275,15 @@
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="49"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
@@ -2322,15 +2323,15 @@
     </row>
     <row r="8" spans="2:28" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="45"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
@@ -2379,29 +2380,29 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="46" t="s">
+      <c r="S10" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="48"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="6"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="51"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="55"/>
       <c r="AB11" s="6"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
@@ -2636,13 +2637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AU13" sqref="AU13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2748,65 +2751,65 @@
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
+      <c r="C7" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="16"/>
-      <c r="L7" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-      <c r="U7" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="48"/>
+      <c r="L7" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="52"/>
+      <c r="U7" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="52"/>
       <c r="AD7" s="6"/>
     </row>
     <row r="8" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="51"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="50"/>
-      <c r="Z8" s="50"/>
-      <c r="AA8" s="50"/>
-      <c r="AB8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="55"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="55"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="55"/>
       <c r="AD8" s="15"/>
     </row>
     <row r="9" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -2816,7 +2819,7 @@
     <row r="10" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="C10" s="23" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -2858,14 +2861,14 @@
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="20" t="s">
         <v>41</v>
       </c>
@@ -2878,14 +2881,14 @@
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
       <c r="R13" s="22"/>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="49"/>
       <c r="Y13" s="20" t="s">
         <v>69</v>
       </c>
@@ -2897,14 +2900,14 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="56">
+      <c r="C14" s="60">
         <v>43191</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="26" t="s">
         <v>71</v>
       </c>
@@ -2917,14 +2920,14 @@
       <c r="P14" s="27"/>
       <c r="Q14" s="27"/>
       <c r="R14" s="28"/>
-      <c r="S14" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="55"/>
+      <c r="S14" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
       <c r="Y14" s="26" t="s">
         <v>66</v>
       </c>
@@ -2936,14 +2939,14 @@
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="56">
+      <c r="C15" s="60">
         <v>43191</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
       <c r="I15" s="26" t="s">
         <v>72</v>
       </c>
@@ -2956,14 +2959,14 @@
       <c r="P15" s="27"/>
       <c r="Q15" s="27"/>
       <c r="R15" s="28"/>
-      <c r="S15" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
+      <c r="S15" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
       <c r="Y15" s="26" t="s">
         <v>70</v>
       </c>
@@ -2975,14 +2978,14 @@
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="56">
+      <c r="C16" s="60">
         <v>43160</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
       <c r="I16" s="26" t="s">
         <v>73</v>
       </c>
@@ -2995,14 +2998,14 @@
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="28"/>
-      <c r="S16" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
+      <c r="S16" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
       <c r="Y16" s="26" t="s">
         <v>70</v>
       </c>
@@ -3014,12 +3017,12 @@
     </row>
     <row r="17" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -3030,12 +3033,12 @@
       <c r="P17" s="27"/>
       <c r="Q17" s="27"/>
       <c r="R17" s="28"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
       <c r="Y17" s="26"/>
       <c r="Z17" s="27"/>
       <c r="AA17" s="27"/>
@@ -3043,7 +3046,7 @@
       <c r="AC17" s="28"/>
       <c r="AD17" s="6"/>
       <c r="AF17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="2:33" x14ac:dyDescent="0.2">
@@ -3051,21 +3054,21 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="6"/>
       <c r="AG18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="AD19" s="6"/>
       <c r="AG19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="AD20" s="6"/>
       <c r="AG20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:33" x14ac:dyDescent="0.2">
@@ -3173,7 +3176,7 @@
   <sheetData>
     <row r="2" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3204,7 +3207,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="3"/>
       <c r="AG2" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -3407,15 +3410,15 @@
     </row>
     <row r="6" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
       <c r="J6" s="10" t="s">
         <v>53</v>
       </c>
@@ -3429,22 +3432,22 @@
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="V6" s="68"/>
+      <c r="V6" s="64"/>
       <c r="Y6" s="5"/>
       <c r="AD6" s="6"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="43" t="s">
+      <c r="AH6" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AI6" s="44"/>
-      <c r="AJ6" s="44"/>
-      <c r="AK6" s="44"/>
-      <c r="AL6" s="44"/>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="45"/>
+      <c r="AI6" s="48"/>
+      <c r="AJ6" s="48"/>
+      <c r="AK6" s="48"/>
+      <c r="AL6" s="48"/>
+      <c r="AM6" s="48"/>
+      <c r="AN6" s="49"/>
       <c r="AO6" s="38" t="s">
         <v>53</v>
       </c>
@@ -3458,10 +3461,10 @@
       <c r="AW6" s="39"/>
       <c r="AX6" s="39"/>
       <c r="AY6" s="40"/>
-      <c r="AZ6" s="59" t="s">
+      <c r="AZ6" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="BA6" s="60"/>
+      <c r="BA6" s="72"/>
       <c r="BD6" s="5"/>
       <c r="BI6" s="6"/>
     </row>
@@ -3527,40 +3530,40 @@
     </row>
     <row r="8" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="71"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="67"/>
       <c r="AD8" s="6"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="43" t="s">
+      <c r="AH8" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AI8" s="44"/>
-      <c r="AJ8" s="44"/>
-      <c r="AK8" s="44"/>
-      <c r="AL8" s="44"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="63"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="48"/>
+      <c r="AK8" s="48"/>
+      <c r="AL8" s="48"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="75"/>
       <c r="BI8" s="6"/>
     </row>
     <row r="9" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -3605,58 +3608,58 @@
     </row>
     <row r="10" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="45"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="49"/>
       <c r="AD10" s="15"/>
       <c r="AG10" s="14"/>
-      <c r="AH10" s="43" t="s">
+      <c r="AH10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="AI10" s="44"/>
-      <c r="AJ10" s="44"/>
-      <c r="AK10" s="44"/>
-      <c r="AL10" s="44"/>
-      <c r="AM10" s="44"/>
-      <c r="AN10" s="44"/>
-      <c r="AO10" s="44"/>
-      <c r="AP10" s="44"/>
-      <c r="AQ10" s="44"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="44"/>
-      <c r="AT10" s="44"/>
-      <c r="AU10" s="44"/>
-      <c r="AV10" s="44"/>
-      <c r="AW10" s="44"/>
-      <c r="AX10" s="44"/>
-      <c r="AY10" s="44"/>
-      <c r="AZ10" s="44"/>
-      <c r="BA10" s="45"/>
+      <c r="AI10" s="48"/>
+      <c r="AJ10" s="48"/>
+      <c r="AK10" s="48"/>
+      <c r="AL10" s="48"/>
+      <c r="AM10" s="48"/>
+      <c r="AN10" s="48"/>
+      <c r="AO10" s="48"/>
+      <c r="AP10" s="48"/>
+      <c r="AQ10" s="48"/>
+      <c r="AR10" s="48"/>
+      <c r="AS10" s="48"/>
+      <c r="AT10" s="48"/>
+      <c r="AU10" s="48"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="48"/>
+      <c r="AX10" s="48"/>
+      <c r="AY10" s="48"/>
+      <c r="AZ10" s="48"/>
+      <c r="BA10" s="49"/>
       <c r="BI10" s="15"/>
     </row>
     <row r="11" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="C11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3687,7 +3690,7 @@
       <c r="AD11" s="6"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="30"/>
@@ -3720,7 +3723,7 @@
     <row r="12" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -3745,7 +3748,7 @@
       <c r="AD12" s="6"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AI12" s="33"/>
       <c r="AJ12" s="33"/>
@@ -3772,7 +3775,7 @@
     <row r="13" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -3796,7 +3799,7 @@
       <c r="AD13" s="6"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI13" s="33"/>
       <c r="AJ13" s="33"/>
@@ -3822,7 +3825,7 @@
     <row r="14" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -3846,7 +3849,7 @@
       <c r="AD14" s="6"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AI14" s="33"/>
       <c r="AJ14" s="33"/>
@@ -3986,7 +3989,7 @@
     <row r="18" spans="2:61" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
       <c r="S18" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T18" s="24"/>
       <c r="AD18" s="15"/>
@@ -4010,7 +4013,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T19" s="24"/>
       <c r="U19" s="16"/>
@@ -4071,7 +4074,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T20" s="24"/>
       <c r="U20" s="16"/>
@@ -4242,52 +4245,52 @@
     </row>
     <row r="24" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="66"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="70"/>
       <c r="AD24" s="6"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="64" t="s">
+      <c r="AH24" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="AI24" s="65"/>
-      <c r="AJ24" s="65"/>
-      <c r="AK24" s="65"/>
-      <c r="AL24" s="65"/>
-      <c r="AM24" s="65"/>
-      <c r="AN24" s="65"/>
-      <c r="AO24" s="65"/>
-      <c r="AP24" s="65"/>
-      <c r="AQ24" s="65"/>
-      <c r="AR24" s="65"/>
-      <c r="AS24" s="65"/>
-      <c r="AT24" s="65"/>
-      <c r="AU24" s="65"/>
-      <c r="AV24" s="65"/>
-      <c r="AW24" s="65"/>
-      <c r="AX24" s="65"/>
-      <c r="AY24" s="65"/>
-      <c r="AZ24" s="65"/>
-      <c r="BA24" s="66"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="69"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="69"/>
+      <c r="AZ24" s="69"/>
+      <c r="BA24" s="70"/>
       <c r="BI24" s="6"/>
     </row>
     <row r="25" spans="2:61" x14ac:dyDescent="0.2">
@@ -4543,7 +4546,7 @@
       <c r="U30" s="5"/>
       <c r="V30" s="6"/>
       <c r="X30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AD30" s="6"/>
       <c r="AG30" s="4"/>
@@ -4592,7 +4595,7 @@
       <c r="U31" s="8"/>
       <c r="V31" s="9"/>
       <c r="Z31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AD31" s="6"/>
       <c r="AG31" s="4"/>
@@ -4641,7 +4644,7 @@
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="Z32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AD32" s="6"/>
       <c r="AG32" s="4"/>
@@ -4715,28 +4718,28 @@
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
-      <c r="E34" s="58" t="s">
+      <c r="E34" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
-      <c r="O34" s="58" t="s">
+      <c r="O34" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
@@ -4748,28 +4751,28 @@
       <c r="AG34" s="4"/>
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
-      <c r="AJ34" s="58" t="s">
+      <c r="AJ34" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="58"/>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
-      <c r="AO34" s="58"/>
-      <c r="AP34" s="58"/>
-      <c r="AQ34" s="58"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="62"/>
+      <c r="AM34" s="62"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
-      <c r="AT34" s="58" t="s">
+      <c r="AT34" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="AU34" s="58"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="58"/>
-      <c r="AX34" s="58"/>
-      <c r="AY34" s="58"/>
-      <c r="AZ34" s="58"/>
-      <c r="BA34" s="58"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="62"/>
+      <c r="AX34" s="62"/>
+      <c r="AY34" s="62"/>
+      <c r="AZ34" s="62"/>
+      <c r="BA34" s="62"/>
       <c r="BB34" s="5"/>
       <c r="BC34" s="5"/>
       <c r="BD34" s="5"/>
@@ -4783,24 +4786,24 @@
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
@@ -4812,24 +4815,24 @@
       <c r="AG35" s="4"/>
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
-      <c r="AJ35" s="58"/>
-      <c r="AK35" s="58"/>
-      <c r="AL35" s="58"/>
-      <c r="AM35" s="58"/>
-      <c r="AN35" s="58"/>
-      <c r="AO35" s="58"/>
-      <c r="AP35" s="58"/>
-      <c r="AQ35" s="58"/>
+      <c r="AJ35" s="62"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="62"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="62"/>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
-      <c r="AT35" s="58"/>
-      <c r="AU35" s="58"/>
-      <c r="AV35" s="58"/>
-      <c r="AW35" s="58"/>
-      <c r="AX35" s="58"/>
-      <c r="AY35" s="58"/>
-      <c r="AZ35" s="58"/>
-      <c r="BA35" s="58"/>
+      <c r="AT35" s="62"/>
+      <c r="AU35" s="62"/>
+      <c r="AV35" s="62"/>
+      <c r="AW35" s="62"/>
+      <c r="AX35" s="62"/>
+      <c r="AY35" s="62"/>
+      <c r="AZ35" s="62"/>
+      <c r="BA35" s="62"/>
       <c r="BB35" s="5"/>
       <c r="BC35" s="5"/>
       <c r="BD35" s="5"/>
@@ -4844,7 +4847,7 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4911,6 +4914,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AH10:BA10"/>
+    <mergeCell ref="AJ34:AQ35"/>
+    <mergeCell ref="AT34:BA35"/>
+    <mergeCell ref="AH6:AN6"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="AN8:AS8"/>
+    <mergeCell ref="AH24:BA24"/>
     <mergeCell ref="E34:L35"/>
     <mergeCell ref="C6:I6"/>
     <mergeCell ref="U6:V6"/>
@@ -4919,14 +4930,6 @@
     <mergeCell ref="I8:N8"/>
     <mergeCell ref="C10:V10"/>
     <mergeCell ref="C24:V24"/>
-    <mergeCell ref="AH10:BA10"/>
-    <mergeCell ref="AJ34:AQ35"/>
-    <mergeCell ref="AT34:BA35"/>
-    <mergeCell ref="AH6:AN6"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="AN8:AS8"/>
-    <mergeCell ref="AH24:BA24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4945,7 +4948,7 @@
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5009,15 +5012,15 @@
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="10" t="s">
         <v>55</v>
       </c>
@@ -5070,28 +5073,28 @@
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="45"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+      <c r="V6" s="49"/>
       <c r="AD6" s="6"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
@@ -5127,7 +5130,7 @@
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -5266,34 +5269,34 @@
     </row>
     <row r="14" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="45"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="49"/>
       <c r="AD14" s="6"/>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -5354,17 +5357,17 @@
     </row>
     <row r="18" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="14"/>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
       <c r="J18" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -5432,28 +5435,28 @@
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="74"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
+      <c r="O21" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="78"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
@@ -5467,24 +5470,24 @@
       <c r="B22" s="4"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="51"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="51"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="55"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -5527,7 +5530,7 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5549,13 +5552,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AG30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BA23" sqref="BA23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5586,7 +5591,7 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="3"/>
       <c r="AG2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:33" x14ac:dyDescent="0.2">
@@ -5622,31 +5627,31 @@
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B4" s="4"/>
-      <c r="O4" s="46" t="s">
+      <c r="O4" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="48"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="52"/>
       <c r="AD4" s="6"/>
       <c r="AG4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="51"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="AD5" s="6"/>
@@ -5671,28 +5676,28 @@
     </row>
     <row r="8" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="45"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="49"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
@@ -5802,24 +5807,24 @@
     </row>
     <row r="13" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="83"/>
+      <c r="C13" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="46"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -5832,11 +5837,11 @@
     <row r="14" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -5845,8 +5850,8 @@
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
-      <c r="M14" s="80" t="s">
-        <v>108</v>
+      <c r="M14" s="43" t="s">
+        <v>107</v>
       </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
@@ -5865,11 +5870,11 @@
     <row r="15" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="C15" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -5878,8 +5883,8 @@
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="12"/>
-      <c r="M15" s="80" t="s">
-        <v>109</v>
+      <c r="M15" s="43" t="s">
+        <v>108</v>
       </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -5902,7 +5907,7 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -5911,8 +5916,8 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
-      <c r="M16" s="80" t="s">
-        <v>110</v>
+      <c r="M16" s="43" t="s">
+        <v>109</v>
       </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
@@ -5966,22 +5971,22 @@
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="69">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="65">
         <v>1</v>
       </c>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="67"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -5997,28 +6002,28 @@
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="O21" s="72" t="s">
+      <c r="O21" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="78"/>
       <c r="AD21" s="6"/>
     </row>
     <row r="22" spans="2:30" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="51"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="55"/>
       <c r="AD22" s="15"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.2">
@@ -6220,19 +6225,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="75" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="77"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
